--- a/report/input/web_east.xlsx
+++ b/report/input/web_east.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -61,24 +61,24 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="2" numFmtId="9" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -447,18 +447,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="8.424285714285716" customWidth="1" min="1" max="1"/>
-    <col width="9.424285714285713" customWidth="1" min="2" max="2"/>
-    <col width="24.42428571428571" customWidth="1" min="3" max="3"/>
-    <col width="8.710000000000001" customWidth="1" min="4" max="4"/>
-    <col width="14.13857142857143" customWidth="1" min="5" max="5"/>
-    <col width="6.424285714285715" customWidth="1" min="6" max="6"/>
-    <col width="11.42428571428571" customWidth="1" min="7" max="7"/>
-    <col width="12.71" customWidth="1" min="8" max="8"/>
-    <col width="7.995714285714286" customWidth="1" min="9" max="9"/>
+    <col customWidth="1" max="1" min="1" width="8.424285714285716"/>
+    <col customWidth="1" max="2" min="2" width="9.424285714285713"/>
+    <col customWidth="1" max="3" min="3" width="24.42428571428571"/>
+    <col customWidth="1" max="4" min="4" width="8.710000000000001"/>
+    <col customWidth="1" max="5" min="5" width="14.13857142857143"/>
+    <col customWidth="1" max="6" min="6" width="6.424285714285715"/>
+    <col customWidth="1" max="7" min="7" width="11.42428571428571"/>
+    <col customWidth="1" max="8" min="8" width="12.71"/>
+    <col customWidth="1" max="9" min="9" width="7.995714285714286"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>category</t>
@@ -505,7 +505,7 @@
         </is>
       </c>
     </row>
-    <row r="2" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="2">
       <c r="A2" s="2" t="n">
         <v>3</v>
       </c>
@@ -542,7 +542,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="3" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="3">
       <c r="A3" s="2" t="n">
         <v>3</v>
       </c>
@@ -579,7 +579,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="4" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="4">
       <c r="A4" s="2" t="n">
         <v>3</v>
       </c>
@@ -616,7 +616,7 @@
         <v>4800</v>
       </c>
     </row>
-    <row r="5" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
@@ -653,7 +653,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="6">
       <c r="A6" s="2" t="n">
         <v>3</v>
       </c>
@@ -690,7 +690,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="7" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="7">
       <c r="A7" s="2" t="n">
         <v>3</v>
       </c>
@@ -727,7 +727,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="8">
       <c r="A8" s="2" t="n">
         <v>3</v>
       </c>
@@ -764,7 +764,7 @@
         <v>4008</v>
       </c>
     </row>
-    <row r="9" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="9">
       <c r="A9" s="2" t="n">
         <v>5</v>
       </c>
@@ -803,7 +803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="10">
       <c r="A10" s="2" t="n">
         <v>5</v>
       </c>
@@ -842,7 +842,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="11">
       <c r="A11" s="2" t="n">
         <v>5</v>
       </c>
@@ -881,7 +881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="12">
       <c r="A12" s="2" t="n">
         <v>3</v>
       </c>
@@ -920,7 +920,7 @@
         <v>4992</v>
       </c>
     </row>
-    <row r="13" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="13">
       <c r="A13" s="2" t="n">
         <v>3</v>
       </c>
@@ -957,7 +957,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="14" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="14">
       <c r="A14" s="2" t="n">
         <v>3</v>
       </c>
@@ -994,7 +994,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="15">
       <c r="A15" s="2" t="n">
         <v>3</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="16">
       <c r="A16" s="2" t="n">
         <v>5</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="17">
       <c r="A17" s="2" t="n">
         <v>2</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="18">
       <c r="A18" s="2" t="n">
         <v>2</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="19">
       <c r="A19" s="2" t="n">
         <v>2</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="20" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="20">
       <c r="A20" s="2" t="n">
         <v>2</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="21" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="21">
       <c r="A21" s="2" t="n">
         <v>5</v>
       </c>
@@ -1255,7 +1255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="22">
       <c r="A22" s="2" t="n">
         <v>5</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="23">
       <c r="A23" s="2" t="n">
         <v>5</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="24">
       <c r="A24" s="2" t="n">
         <v>5</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="25">
       <c r="A25" s="2" t="n">
         <v>5</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="26">
       <c r="A26" s="2" t="n">
         <v>1</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="27">
       <c r="A27" s="2" t="n">
         <v>1</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="28">
       <c r="A28" s="2" t="n">
         <v>7</v>
       </c>
@@ -1522,7 +1522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="29">
       <c r="A29" s="2" t="n">
         <v>7</v>
       </c>
@@ -1559,7 +1559,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="30">
       <c r="A30" s="2" t="n">
         <v>5</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="31">
       <c r="A31" s="2" t="n">
         <v>5</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="32">
       <c r="A32" s="2" t="n">
         <v>4</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="33">
       <c r="A33" s="2" t="n">
         <v>4</v>
       </c>
@@ -1711,7 +1711,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="34">
       <c r="A34" s="2" t="n">
         <v>5</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="35">
       <c r="A35" s="2" t="n">
         <v>5</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="36">
       <c r="A36" s="2" t="n">
         <v>5</v>
       </c>
@@ -1826,7 +1826,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="37">
       <c r="A37" s="2" t="n">
         <v>5</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="38">
       <c r="A38" s="2" t="n">
         <v>7</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="39">
       <c r="A39" s="2" t="n">
         <v>7</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="40" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="40">
       <c r="A40" s="2" t="n">
         <v>5</v>
       </c>
@@ -1976,7 +1976,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="41" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="41">
       <c r="A41" s="2" t="n">
         <v>7</v>
       </c>
@@ -2013,7 +2013,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="42">
       <c r="A42" s="2" t="n">
         <v>7</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="43">
       <c r="A43" s="2" t="n">
         <v>7</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="44">
       <c r="A44" s="2" t="n">
         <v>5</v>
       </c>
@@ -2124,7 +2124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="45">
       <c r="A45" s="2" t="n">
         <v>5</v>
       </c>
@@ -2161,7 +2161,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="46">
       <c r="A46" s="2" t="n">
         <v>7</v>
       </c>
@@ -2198,7 +2198,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="47" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="47">
       <c r="A47" s="2" t="n">
         <v>5</v>
       </c>
@@ -2237,7 +2237,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="48" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="48">
       <c r="A48" s="2" t="n">
         <v>7</v>
       </c>
@@ -2274,7 +2274,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="49" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="49">
       <c r="A49" s="2" t="n">
         <v>3</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="50">
       <c r="A50" s="2" t="n">
         <v>5</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="51" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="51">
       <c r="A51" s="2" t="n">
         <v>1</v>
       </c>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="52">
       <c r="A52" s="2" t="n">
         <v>1</v>
       </c>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="53">
       <c r="A53" s="2" t="n">
         <v>1</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="54">
       <c r="A54" s="2" t="n">
         <v>5</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="55" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="55">
       <c r="A55" s="2" t="n">
         <v>5</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="56" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="56">
       <c r="A56" s="2" t="n">
         <v>5</v>
       </c>
@@ -2578,7 +2578,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="57">
       <c r="A57" s="2" t="n">
         <v>5</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="58">
       <c r="A58" s="2" t="n">
         <v>5</v>
       </c>
@@ -2652,7 +2652,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="59">
       <c r="A59" s="2" t="n">
         <v>5</v>
       </c>
@@ -2689,7 +2689,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="60" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="60">
       <c r="A60" s="2" t="n">
         <v>3</v>
       </c>
@@ -2726,7 +2726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="61" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="61">
       <c r="A61" s="2" t="n">
         <v>5</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="62">
       <c r="A62" s="2" t="n">
         <v>5</v>
       </c>
@@ -2804,7 +2804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="63" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="63">
       <c r="A63" s="2" t="n">
         <v>2</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="64" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="64">
       <c r="A64" s="2" t="n">
         <v>7</v>
       </c>
@@ -2878,7 +2878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="65">
       <c r="A65" s="2" t="n">
         <v>5</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="66">
       <c r="A66" s="2" t="n">
         <v>5</v>
       </c>
@@ -2954,7 +2954,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="67">
       <c r="A67" s="2" t="n">
         <v>5</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="68">
       <c r="A68" s="2" t="n">
         <v>5</v>
       </c>
@@ -3032,7 +3032,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="69" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="69">
       <c r="A69" s="2" t="n">
         <v>5</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="70" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="70">
       <c r="A70" s="2" t="n">
         <v>5</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="71">
       <c r="A71" s="2" t="n">
         <v>3</v>
       </c>
@@ -3145,7 +3145,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="72" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="72">
       <c r="A72" s="2" t="n">
         <v>3</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="73" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="73">
       <c r="A73" s="2" t="n">
         <v>3</v>
       </c>
@@ -3219,7 +3219,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="74" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="74">
       <c r="A74" s="2" t="n">
         <v>3</v>
       </c>
@@ -3258,7 +3258,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="75" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="75">
       <c r="A75" s="2" t="n">
         <v>3</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>5136</v>
       </c>
     </row>
-    <row r="76" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="76">
       <c r="A76" s="2" t="n">
         <v>3</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>5136</v>
       </c>
     </row>
-    <row r="77" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="77">
       <c r="A77" s="2" t="n">
         <v>3</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="78" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="78">
       <c r="A78" s="2" t="n">
         <v>3</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="79" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="79">
       <c r="A79" s="2" t="n">
         <v>3</v>
       </c>
@@ -3453,7 +3453,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="80" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="80">
       <c r="A80" s="2" t="n">
         <v>3</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="81" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="81">
       <c r="A81" s="2" t="n">
         <v>3</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="82" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="82">
       <c r="A82" s="2" t="n">
         <v>3</v>
       </c>
@@ -3564,7 +3564,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="83" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="83">
       <c r="A83" s="2" t="n">
         <v>3</v>
       </c>
@@ -3601,7 +3601,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="84">
       <c r="A84" s="2" t="n">
         <v>3</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="85" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="85">
       <c r="A85" s="2" t="n">
         <v>3</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="86" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="86">
       <c r="A86" s="2" t="n">
         <v>3</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="87">
       <c r="A87" s="2" t="n">
         <v>3</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="88">
       <c r="A88" s="2" t="n">
         <v>3</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="89" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="89">
       <c r="A89" s="2" t="n">
         <v>3</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>4992</v>
       </c>
     </row>
-    <row r="90" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="90">
       <c r="A90" s="2" t="n">
         <v>3</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="91" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="91">
       <c r="A91" s="2" t="n">
         <v>3</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="92" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="92">
       <c r="A92" s="2" t="n">
         <v>3</v>
       </c>
@@ -3934,7 +3934,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="93" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="93">
       <c r="A93" s="2" t="n">
         <v>3</v>
       </c>
@@ -3971,7 +3971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="94">
       <c r="A94" s="2" t="n">
         <v>3</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="95" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="95">
       <c r="A95" s="2" t="n">
         <v>3</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="96" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="96">
       <c r="A96" s="2" t="n">
         <v>3</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="97" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="97">
       <c r="A97" s="2" t="n">
         <v>3</v>
       </c>
@@ -4121,7 +4121,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="98">
       <c r="A98" s="2" t="n">
         <v>5</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="99" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="99">
       <c r="A99" s="2" t="n">
         <v>7</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="100">
       <c r="A100" s="2" t="n">
         <v>5</v>
       </c>
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="101">
       <c r="A101" s="2" t="n">
         <v>5</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="102">
       <c r="A102" s="2" t="n">
         <v>5</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="103">
       <c r="A103" s="2" t="n">
         <v>5</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="104">
       <c r="A104" s="2" t="n">
         <v>3</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="105" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="105">
       <c r="A105" s="2" t="n">
         <v>3</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="106" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="106">
       <c r="A106" s="2" t="n">
         <v>3</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="107" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="107">
       <c r="A107" s="2" t="n">
         <v>3</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="108">
       <c r="A108" s="2" t="n">
         <v>3</v>
       </c>
@@ -4536,7 +4536,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="109">
       <c r="A109" s="2" t="n">
         <v>3</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="110">
       <c r="A110" s="2" t="n">
         <v>3</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="111" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="111">
       <c r="A111" s="2" t="n">
         <v>3</v>
       </c>
@@ -4647,7 +4647,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="112" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="112">
       <c r="A112" s="2" t="n">
         <v>3</v>
       </c>
@@ -4684,7 +4684,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="113" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="113">
       <c r="A113" s="2" t="n">
         <v>3</v>
       </c>
@@ -4721,7 +4721,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="114" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="114">
       <c r="A114" s="2" t="n">
         <v>3</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="115" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="115">
       <c r="A115" s="2" t="n">
         <v>3</v>
       </c>
@@ -4795,7 +4795,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="116" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="116">
       <c r="A116" s="2" t="n">
         <v>3</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="117" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="117">
       <c r="A117" s="2" t="n">
         <v>3</v>
       </c>
@@ -4869,7 +4869,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="118" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="118">
       <c r="A118" s="2" t="n">
         <v>3</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="119" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="119">
       <c r="A119" s="2" t="n">
         <v>3</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="120" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="120">
       <c r="A120" s="2" t="n">
         <v>3</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>10008</v>
       </c>
     </row>
-    <row r="121" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="121">
       <c r="A121" s="2" t="n">
         <v>3</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="122" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="122">
       <c r="A122" s="2" t="n">
         <v>3</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>4992</v>
       </c>
     </row>
-    <row r="123" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="123">
       <c r="A123" s="2" t="n">
         <v>7</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="124">
       <c r="A124" s="2" t="n">
         <v>5</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="125" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="125">
       <c r="A125" s="2" t="n">
         <v>5</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="126">
       <c r="A126" s="2" t="n">
         <v>5</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="127">
       <c r="A127" s="2" t="n">
         <v>7</v>
       </c>
@@ -5249,7 +5249,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="128" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="128">
       <c r="A128" s="2" t="n">
         <v>5</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="129">
       <c r="A129" s="2" t="n">
         <v>5</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="130" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="130">
       <c r="A130" s="2" t="n">
         <v>5</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="131" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="131">
       <c r="A131" s="2" t="n">
         <v>5</v>
       </c>
@@ -5405,7 +5405,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="132" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="132">
       <c r="A132" s="2" t="n">
         <v>5</v>
       </c>
@@ -5444,7 +5444,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="133" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="133">
       <c r="A133" s="2" t="n">
         <v>1</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="134">
       <c r="A134" s="2" t="n">
         <v>5</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="135" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="135">
       <c r="A135" s="2" t="n">
         <v>5</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="136">
       <c r="A136" s="2" t="n">
         <v>5</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="137" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="137">
       <c r="A137" s="2" t="n">
         <v>5</v>
       </c>
@@ -5637,7 +5637,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="138" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="138">
       <c r="A138" s="2" t="n">
         <v>5</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="139">
       <c r="A139" s="2" t="n">
         <v>5</v>
       </c>
@@ -5715,7 +5715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="140">
       <c r="A140" s="2" t="n">
         <v>5</v>
       </c>
@@ -5752,7 +5752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="141" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="141">
       <c r="A141" s="2" t="n">
         <v>7</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="142" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="142">
       <c r="A142" s="2" t="n">
         <v>7</v>
       </c>
@@ -5826,7 +5826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="143">
       <c r="A143" s="2" t="n">
         <v>7</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="144">
       <c r="A144" s="2" t="n">
         <v>2</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="145" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="145">
       <c r="A145" s="2" t="n">
         <v>2</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="146" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="146">
       <c r="A146" s="2" t="n">
         <v>2</v>
       </c>
@@ -5974,7 +5974,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="147" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="147">
       <c r="A147" s="2" t="n">
         <v>5</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="148" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="148">
       <c r="A148" s="2" t="n">
         <v>5</v>
       </c>
@@ -6052,7 +6052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="149">
       <c r="A149" s="2" t="n">
         <v>5</v>
       </c>
@@ -6091,7 +6091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="150" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="150">
       <c r="A150" s="2" t="n">
         <v>5</v>
       </c>
@@ -6130,7 +6130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="151" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="151">
       <c r="A151" s="2" t="n">
         <v>5</v>
       </c>
@@ -6169,7 +6169,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="152" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="152">
       <c r="A152" s="2" t="n">
         <v>5</v>
       </c>
@@ -6208,7 +6208,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="153" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="153">
       <c r="A153" s="2" t="n">
         <v>7</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="154" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="154">
       <c r="A154" s="2" t="n">
         <v>7</v>
       </c>
@@ -6282,7 +6282,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="155" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="155">
       <c r="A155" s="2" t="n">
         <v>2</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="156" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="156">
       <c r="A156" s="2" t="n">
         <v>7</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="157">
       <c r="A157" s="2" t="n">
         <v>2</v>
       </c>
@@ -6393,7 +6393,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="158" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="158">
       <c r="A158" s="2" t="n">
         <v>5</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="159" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="159">
       <c r="A159" s="2" t="n">
         <v>5</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="160" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="160">
       <c r="A160" s="2" t="n">
         <v>5</v>
       </c>
@@ -6510,7 +6510,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="161" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="161">
       <c r="A161" s="2" t="n">
         <v>3</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="162">
       <c r="A162" s="2" t="n">
         <v>7</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="163">
       <c r="A163" s="2" t="n">
         <v>5</v>
       </c>
@@ -6623,7 +6623,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="164" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="164">
       <c r="A164" s="2" t="n">
         <v>5</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="165">
       <c r="A165" s="2" t="n">
         <v>5</v>
       </c>
@@ -6701,7 +6701,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="166" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="166">
       <c r="A166" s="2" t="n">
         <v>5</v>
       </c>
@@ -6738,7 +6738,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="167">
       <c r="A167" s="2" t="n">
         <v>5</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="168" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="168">
       <c r="A168" s="2" t="n">
         <v>5</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="169" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="169">
       <c r="A169" s="2" t="n">
         <v>7</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="170" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="170">
       <c r="A170" s="2" t="n">
         <v>5</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="171" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="171">
       <c r="A171" s="2" t="n">
         <v>7</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="172">
       <c r="A172" s="2" t="n">
         <v>3</v>
       </c>
@@ -6962,7 +6962,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="173">
       <c r="A173" s="2" t="n">
         <v>5</v>
       </c>
@@ -7001,7 +7001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="174">
       <c r="A174" s="2" t="n">
         <v>5</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="175">
       <c r="A175" s="2" t="n">
         <v>5</v>
       </c>
@@ -7079,7 +7079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="176" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="176">
       <c r="A176" s="2" t="n">
         <v>2</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="177" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="177">
       <c r="A177" s="2" t="n">
         <v>5</v>
       </c>
@@ -7155,7 +7155,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="178" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="178">
       <c r="A178" s="2" t="n">
         <v>1</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="179">
       <c r="A179" s="2" t="n">
         <v>1</v>
       </c>
@@ -7229,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="180">
       <c r="A180" s="2" t="n">
         <v>1</v>
       </c>
@@ -7266,7 +7266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="181">
       <c r="A181" s="2" t="n">
         <v>1</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="182">
       <c r="A182" s="2" t="n">
         <v>1</v>
       </c>
@@ -7342,7 +7342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="183">
       <c r="A183" s="2" t="n">
         <v>1</v>
       </c>
@@ -7379,7 +7379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="184">
       <c r="A184" s="2" t="n">
         <v>1</v>
       </c>
@@ -7416,7 +7416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="185">
       <c r="A185" s="2" t="n">
         <v>1</v>
       </c>
@@ -7453,7 +7453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="186">
       <c r="A186" s="2" t="n">
         <v>1</v>
       </c>
@@ -7490,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="187">
       <c r="A187" s="2" t="n">
         <v>1</v>
       </c>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="188">
       <c r="A188" s="2" t="n">
         <v>1</v>
       </c>
@@ -7564,7 +7564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="189">
       <c r="A189" s="2" t="n">
         <v>1</v>
       </c>
@@ -7601,7 +7601,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="190" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="190">
       <c r="A190" s="2" t="n">
         <v>2</v>
       </c>
@@ -7638,7 +7638,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="191" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="191">
       <c r="A191" s="2" t="n">
         <v>5</v>
       </c>
@@ -7675,7 +7675,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="192" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="192">
       <c r="A192" s="2" t="n">
         <v>5</v>
       </c>
@@ -7714,7 +7714,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="193" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="193">
       <c r="A193" s="2" t="n">
         <v>5</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="194" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="194">
       <c r="A194" s="2" t="n">
         <v>5</v>
       </c>
@@ -7792,7 +7792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="195">
       <c r="A195" s="2" t="n">
         <v>5</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="196">
       <c r="A196" s="2" t="n">
         <v>7</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="197" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="197">
       <c r="A197" s="2" t="n">
         <v>2</v>
       </c>
@@ -7905,7 +7905,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="198" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="198">
       <c r="A198" s="2" t="n">
         <v>5</v>
       </c>
@@ -7942,7 +7942,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="199">
       <c r="A199" s="2" t="n">
         <v>5</v>
       </c>
@@ -7981,7 +7981,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="200">
       <c r="A200" s="2" t="n">
         <v>5</v>
       </c>
@@ -8018,7 +8018,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="201" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="201">
       <c r="A201" s="2" t="n">
         <v>5</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="202" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="202">
       <c r="A202" s="2" t="n">
         <v>5</v>
       </c>
@@ -8092,7 +8092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="203" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="203">
       <c r="A203" s="2" t="n">
         <v>5</v>
       </c>
@@ -8129,7 +8129,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="204">
       <c r="A204" s="2" t="n">
         <v>5</v>
       </c>
@@ -8168,7 +8168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="205" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="205">
       <c r="A205" s="2" t="n">
         <v>5</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="206">
       <c r="A206" s="2" t="n">
         <v>5</v>
       </c>
@@ -8246,7 +8246,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="207" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="207">
       <c r="A207" s="2" t="n">
         <v>5</v>
       </c>
@@ -8285,7 +8285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="208">
       <c r="A208" s="2" t="n">
         <v>1</v>
       </c>
@@ -8324,7 +8324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="209">
       <c r="A209" s="2" t="n">
         <v>1</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="210">
       <c r="A210" s="2" t="n">
         <v>1</v>
       </c>
@@ -8402,7 +8402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="211">
       <c r="A211" s="2" t="n">
         <v>7</v>
       </c>
@@ -8441,7 +8441,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="212" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="212">
       <c r="A212" s="2" t="n">
         <v>7</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="213" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="213">
       <c r="A213" s="2" t="n">
         <v>7</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="214" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="214">
       <c r="A214" s="2" t="n">
         <v>7</v>
       </c>
@@ -8558,7 +8558,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="215" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="215">
       <c r="A215" s="2" t="n">
         <v>1</v>
       </c>
@@ -8595,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="216">
       <c r="A216" s="2" t="n">
         <v>1</v>
       </c>
@@ -8632,7 +8632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="217">
       <c r="A217" s="2" t="n">
         <v>1</v>
       </c>
@@ -8669,7 +8669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="218">
       <c r="A218" s="2" t="n">
         <v>1</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="219">
       <c r="A219" s="2" t="n">
         <v>1</v>
       </c>
@@ -8743,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="220">
       <c r="A220" s="2" t="n">
         <v>1</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="221">
       <c r="A221" s="2" t="n">
         <v>1</v>
       </c>
@@ -8817,7 +8817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="222">
       <c r="A222" s="2" t="n">
         <v>1</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="223">
       <c r="A223" s="2" t="n">
         <v>1</v>
       </c>
@@ -8891,7 +8891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="224">
       <c r="A224" s="2" t="n">
         <v>1</v>
       </c>
@@ -8928,7 +8928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="225">
       <c r="A225" s="2" t="n">
         <v>1</v>
       </c>
@@ -8965,7 +8965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="226">
       <c r="A226" s="2" t="n">
         <v>1</v>
       </c>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="227">
       <c r="A227" s="2" t="n">
         <v>1</v>
       </c>
@@ -9039,7 +9039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="228">
       <c r="A228" s="2" t="n">
         <v>1</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="229">
       <c r="A229" s="2" t="n">
         <v>1</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="230">
       <c r="A230" s="2" t="n">
         <v>5</v>
       </c>
@@ -9150,7 +9150,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="231" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="231">
       <c r="A231" s="2" t="n">
         <v>2</v>
       </c>
@@ -9187,7 +9187,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="232" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="232">
       <c r="A232" s="2" t="n">
         <v>5</v>
       </c>
@@ -9226,7 +9226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="233" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="233">
       <c r="A233" s="2" t="n">
         <v>2</v>
       </c>
@@ -9263,7 +9263,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="234" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="234">
       <c r="A234" s="2" t="n">
         <v>2</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="235" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="235">
       <c r="A235" s="2" t="n">
         <v>1</v>
       </c>
@@ -9337,7 +9337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="236">
       <c r="A236" s="2" t="n">
         <v>1</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="237">
       <c r="A237" s="2" t="n">
         <v>1</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="238">
       <c r="A238" s="2" t="n">
         <v>1</v>
       </c>
@@ -9450,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="239">
       <c r="A239" s="2" t="n">
         <v>1</v>
       </c>
@@ -9489,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="240">
       <c r="A240" s="2" t="n">
         <v>1</v>
       </c>
@@ -9528,7 +9528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="241">
       <c r="A241" s="2" t="n">
         <v>1</v>
       </c>
@@ -9567,7 +9567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="242">
       <c r="A242" s="2" t="n">
         <v>1</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="243">
       <c r="A243" s="2" t="n">
         <v>1</v>
       </c>
@@ -9645,7 +9645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="244">
       <c r="A244" s="2" t="n">
         <v>1</v>
       </c>
@@ -9684,7 +9684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="245">
       <c r="A245" s="2" t="n">
         <v>1</v>
       </c>
@@ -9723,7 +9723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="246">
       <c r="A246" s="2" t="n">
         <v>1</v>
       </c>
@@ -9762,7 +9762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="247">
       <c r="A247" s="2" t="n">
         <v>1</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="248">
       <c r="A248" s="2" t="n">
         <v>1</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="249">
       <c r="A249" s="2" t="n">
         <v>1</v>
       </c>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="250">
       <c r="A250" s="2" t="n">
         <v>1</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="251">
       <c r="A251" s="2" t="n">
         <v>1</v>
       </c>
@@ -9951,7 +9951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="252">
       <c r="A252" s="2" t="n">
         <v>1</v>
       </c>
@@ -9988,7 +9988,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="253" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="253">
       <c r="A253" s="2" t="n">
         <v>1</v>
       </c>
@@ -10025,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="254">
       <c r="A254" s="2" t="n">
         <v>1</v>
       </c>
@@ -10062,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="255">
       <c r="A255" s="2" t="n">
         <v>1</v>
       </c>
@@ -10099,7 +10099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="256">
       <c r="A256" s="2" t="n">
         <v>1</v>
       </c>
@@ -10138,7 +10138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="257">
       <c r="A257" s="2" t="n">
         <v>1</v>
       </c>
@@ -10177,7 +10177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="258">
       <c r="A258" s="2" t="n">
         <v>1</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="259">
       <c r="A259" s="2" t="n">
         <v>1</v>
       </c>
@@ -10255,7 +10255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="260">
       <c r="A260" s="2" t="n">
         <v>1</v>
       </c>
@@ -10294,7 +10294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="261">
       <c r="A261" s="2" t="n">
         <v>1</v>
       </c>
@@ -10333,7 +10333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="262">
       <c r="A262" s="2" t="n">
         <v>1</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="263">
       <c r="A263" s="2" t="n">
         <v>1</v>
       </c>
@@ -10411,7 +10411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="264">
       <c r="A264" s="2" t="n">
         <v>1</v>
       </c>
@@ -10450,7 +10450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="265">
       <c r="A265" s="2" t="n">
         <v>1</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="266">
       <c r="A266" s="2" t="n">
         <v>1</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="267">
       <c r="A267" s="2" t="n">
         <v>1</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="268">
       <c r="A268" s="2" t="n">
         <v>1</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="269">
       <c r="A269" s="2" t="n">
         <v>1</v>
       </c>
@@ -10637,7 +10637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="270">
       <c r="A270" s="2" t="n">
         <v>1</v>
       </c>
@@ -10674,7 +10674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="271">
       <c r="A271" s="2" t="n">
         <v>1</v>
       </c>
@@ -10711,7 +10711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="272">
       <c r="A272" s="2" t="n">
         <v>1</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="273">
       <c r="A273" s="2" t="n">
         <v>1</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="274" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="274">
       <c r="A274" s="2" t="n">
         <v>1</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="275">
       <c r="A275" s="2" t="n">
         <v>1</v>
       </c>
@@ -10859,7 +10859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="276">
       <c r="A276" s="2" t="n">
         <v>1</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="277">
       <c r="A277" s="2" t="n">
         <v>1</v>
       </c>
@@ -10935,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="278">
       <c r="A278" s="2" t="n">
         <v>1</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="279">
       <c r="A279" s="2" t="n">
         <v>1</v>
       </c>
@@ -11013,7 +11013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="280">
       <c r="A280" s="2" t="n">
         <v>1</v>
       </c>
@@ -11052,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="281">
       <c r="A281" s="2" t="n">
         <v>1</v>
       </c>
@@ -11091,7 +11091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="282">
       <c r="A282" s="2" t="n">
         <v>1</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="283">
       <c r="A283" s="2" t="n">
         <v>1</v>
       </c>
@@ -11167,7 +11167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="284">
       <c r="A284" s="2" t="n">
         <v>1</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="285">
       <c r="A285" s="2" t="n">
         <v>1</v>
       </c>
@@ -11241,7 +11241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="286">
       <c r="A286" s="2" t="n">
         <v>1</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="287">
       <c r="A287" s="2" t="n">
         <v>1</v>
       </c>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="288">
       <c r="A288" s="2" t="n">
         <v>1</v>
       </c>
@@ -11352,7 +11352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="289">
       <c r="A289" s="2" t="n">
         <v>1</v>
       </c>
@@ -11389,7 +11389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="290">
       <c r="A290" s="2" t="n">
         <v>1</v>
       </c>
@@ -11426,7 +11426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="291">
       <c r="A291" s="2" t="n">
         <v>1</v>
       </c>
@@ -11463,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="292">
       <c r="A292" s="2" t="n">
         <v>1</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="293">
       <c r="A293" s="2" t="n">
         <v>1</v>
       </c>
@@ -11537,7 +11537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="294">
       <c r="A294" s="2" t="n">
         <v>1</v>
       </c>
@@ -11574,7 +11574,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="295" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="295">
       <c r="A295" s="2" t="n">
         <v>1</v>
       </c>
@@ -11613,7 +11613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="296">
       <c r="A296" s="2" t="n">
         <v>1</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="297">
       <c r="A297" s="2" t="n">
         <v>1</v>
       </c>
@@ -11687,7 +11687,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="298" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="298">
       <c r="A298" s="2" t="n">
         <v>1</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="299">
       <c r="A299" s="2" t="n">
         <v>1</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="300">
       <c r="A300" s="2" t="n">
         <v>1</v>
       </c>
@@ -11798,7 +11798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="301">
       <c r="A301" s="2" t="n">
         <v>1</v>
       </c>
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="302">
       <c r="A302" s="2" t="n">
         <v>1</v>
       </c>
@@ -11872,7 +11872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="303">
       <c r="A303" s="2" t="n">
         <v>1</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="304">
       <c r="A304" s="2" t="n">
         <v>1</v>
       </c>
@@ -11946,7 +11946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="305">
       <c r="A305" s="2" t="n">
         <v>1</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="306" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="306">
       <c r="A306" s="2" t="n">
         <v>1</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="307" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="307">
       <c r="A307" s="2" t="n">
         <v>1</v>
       </c>
@@ -12057,7 +12057,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="308" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="308">
       <c r="A308" s="2" t="n">
         <v>1</v>
       </c>
@@ -12094,7 +12094,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="309" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="309">
       <c r="A309" s="2" t="n">
         <v>1</v>
       </c>
@@ -12133,7 +12133,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="310" ht="15.5" customHeight="1">
+    <row customHeight="1" ht="15.5" r="310">
       <c r="A310" s="2" t="n">
         <v>1</v>
       </c>
@@ -12173,6 +12173,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>